--- a/backend/web/uplaod/template/info.xlsx
+++ b/backend/web/uplaod/template/info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\new\backend\web\uplaod\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\主管坐骑\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72988AC-350A-44B9-B1CE-84A760FAB122}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>小区</t>
   </si>
@@ -84,13 +85,57 @@
   </si>
   <si>
     <t>2-4053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交房时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>452226199107074810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来宾市兴宾区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋朝向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>452226199107074811</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -476,22 +521,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.875" style="2" customWidth="1"/>
-    <col min="5" max="254" width="18.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="10" width="14" style="2" customWidth="1"/>
+    <col min="11" max="254" width="18.625" style="2" customWidth="1"/>
     <col min="255" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -513,8 +564,29 @@
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -536,8 +608,23 @@
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -558,6 +645,21 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -584,7 +686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/backend/web/uplaod/template/info.xlsx
+++ b/backend/web/uplaod/template/info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\主管坐骑\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\new\backend\web\uplaod\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72988AC-350A-44B9-B1CE-84A760FAB122}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA34093F-6559-499B-898A-C0FFEF13435D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>小区</t>
   </si>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>452226199107074810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>来宾市兴宾区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,6 +125,14 @@
   </si>
   <si>
     <t>452226199107074811</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>452226199107074598</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +529,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -580,10 +584,10 @@
         <v>22</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -600,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -618,10 +622,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -656,10 +660,10 @@
         <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
